--- a/code_case_study/patios_breakpoints_simplified.xlsx
+++ b/code_case_study/patios_breakpoints_simplified.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0.sharepoint.com/sites/GrupodeTrabajodeJusto/Documentos compartidos/General/AMMDRPG/case_study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0.sharepoint.com/sites/GrupodeTrabajodeJusto/Documentos compartidos/General/AMMDRPG/code_case_study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{16415C3C-C229-4CFE-8629-47AA071D8970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09ED1767-03C7-4750-A354-630395633E63}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{16415C3C-C229-4CFE-8629-47AA071D8970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABFC195C-6A45-4180-97A4-58973135A6DF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7095" yWindow="3825" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ruta1" sheetId="1" r:id="rId1"/>
@@ -42,16 +42,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -79,10 +71,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,7 +794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343AE058-65B6-477E-B0FF-37127B64BAB0}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -1010,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE826A44-B756-4593-B6C1-C54D3418D7CD}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" activeCellId="5" sqref="A6:XFD6 A10:XFD10 A15:XFD15 A16:XFD16 A18:XFD18 A22:XFD22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,15 +1174,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BA727D-60DB-4051-856B-CACF64C7D958}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1199,7 +1190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>198.26</v>
       </c>
@@ -1207,7 +1198,7 @@
         <v>69.069999999999993</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>200.66</v>
       </c>
@@ -1215,7 +1206,7 @@
         <v>69.42</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>200.94</v>
       </c>
@@ -1223,7 +1214,7 @@
         <v>67.59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>203.83</v>
       </c>
@@ -1231,7 +1222,7 @@
         <v>69.3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>203.83</v>
       </c>
@@ -1239,7 +1230,7 @@
         <v>69.709999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>205.03</v>
       </c>
@@ -1247,7 +1238,7 @@
         <v>70.13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>212.01</v>
       </c>
@@ -1255,7 +1246,7 @@
         <v>80.63</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>221.17</v>
       </c>
@@ -1263,7 +1254,7 @@
         <v>73.790000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>223.99</v>
       </c>
@@ -1271,7 +1262,7 @@
         <v>80.98</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>233.08</v>
       </c>
@@ -1279,16 +1270,15 @@
         <v>79.790000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>231.458</v>
       </c>
       <c r="B12">
         <v>65.41</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>233.64</v>
       </c>
@@ -1296,7 +1286,7 @@
         <v>63.71</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>240.62</v>
       </c>
@@ -1304,7 +1294,7 @@
         <v>57.51</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>243.721</v>
       </c>
@@ -1312,7 +1302,7 @@
         <v>55.05</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>230.12</v>
       </c>
@@ -1399,9 +1389,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1616,19 +1609,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F581D1-E4C6-4F7F-AD62-5479D869D3BF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80EBE70B-0AAC-4217-A91F-0984A0D05809}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1653,9 +1642,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80EBE70B-0AAC-4217-A91F-0984A0D05809}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F581D1-E4C6-4F7F-AD62-5479D869D3BF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>